--- a/testdata/testdata.xlsx
+++ b/testdata/testdata.xlsx
@@ -44,9 +44,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>samsung android smart tv</t>
-  </si>
-  <si>
     <t>*****udid</t>
   </si>
   <si>
@@ -54,6 +51,9 @@
   </si>
   <si>
     <t>*****password</t>
+  </si>
+  <si>
+    <t>samsung 65 inch android smart tv</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -469,16 +469,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/testdata.xlsx
+++ b/testdata/testdata.xlsx
@@ -44,16 +44,16 @@
     <t>Password</t>
   </si>
   <si>
-    <t>*****udid</t>
-  </si>
-  <si>
-    <t>****email</t>
-  </si>
-  <si>
-    <t>*****password</t>
-  </si>
-  <si>
     <t>samsung 65 inch android smart tv</t>
+  </si>
+  <si>
+    <t>***udid</t>
+  </si>
+  <si>
+    <t>***email</t>
+  </si>
+  <si>
+    <t>***password</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -469,19 +469,23 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="tekisrinivas20@gmail.com"/>
+    <hyperlink ref="D2" r:id="rId2" display="srinu@20"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>